--- a/biology/Botanique/Euphroniaceae/Euphroniaceae.xlsx
+++ b/biology/Botanique/Euphroniaceae/Euphroniaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Euphroniaceae (les Euphroniacées) sont une petite famille de plantes à fleurs dicotylédone de l'ordre des Malpighiales.
 Ce sont des arbustes des régions tropicales d'Amérique du Sud que l'on rencontre en Guyane.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Euphronia dérivé du grec grec ευ / eu, bien, et  φρόνως / fronos, penser.
 </t>
@@ -543,12 +557,14 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification classique de Cronquist (1981)[1] n'accepte pas cette famille et place le genre Euphronia dans la famille des Vochysiaceae (dans l'ordre des Polygalales).
-La classification phylogénétique APG (1998)[2] situe cette famille dans l'ordre des Malpighiales. Dans ce cas la famille ne comprend que 2 espèces du genre Euphronia. 
-Pour la classification phylogénétique APG II (2003)[3], cette famille est optionnelle; le genre Euphronia peut aussi être assigné aux Chrysobalanacées.
-La classification phylogénétique APG III (2009)[4], qui n'a jamais recours à des familles optionnelles, reconnait cette famille.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification classique de Cronquist (1981) n'accepte pas cette famille et place le genre Euphronia dans la famille des Vochysiaceae (dans l'ordre des Polygalales).
+La classification phylogénétique APG (1998) situe cette famille dans l'ordre des Malpighiales. Dans ce cas la famille ne comprend que 2 espèces du genre Euphronia. 
+Pour la classification phylogénétique APG II (2003), cette famille est optionnelle; le genre Euphronia peut aussi être assigné aux Chrysobalanacées.
+La classification phylogénétique APG III (2009), qui n'a jamais recours à des familles optionnelles, reconnait cette famille.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (23 mai 2010)[5], NCBI  (23 mai 2010)[6] et DELTA Angio           (23 mai 2010)[7] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (23 mai 2010), NCBI  (23 mai 2010) et DELTA Angio           (23 mai 2010) :
 genre Euphronia Mart. &amp; Zucc.</t>
         </is>
       </c>
@@ -608,9 +626,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (23 mai 2010)[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (23 mai 2010) :
 genre Euphronia
 Euphronia guianensis</t>
         </is>
